--- a/MEDIA/202011050290應付帳款明細.xlsx
+++ b/MEDIA/202011050290應付帳款明細.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,592 +464,331 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20001836</t>
+          <t>20001912</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>20005048</t>
+          <t>20005156</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20200929</t>
+          <t>20201005</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>100142</t>
+          <t>100800</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>寬友股份有限公司                                </t>
+          <t>康百國際食品股份有限公司                            </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>NS20</t>
+          <t>IN10</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>NS20</t>
+          <t>IN10</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>000                      </t>
+          <t>102614-2                 </t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>A4 DM-振興飽胃券                   </t>
+          <t>小圓片鳳梨830g/罐                   </t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>提前交期&amp;追加品項                     </t>
+          <t>小圓片鳳梨830g/罐 100箱              </t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>12罐/箱, (鳳冠牌) 固形物430g          </t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1200</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60000</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60000</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>63000</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20001946</t>
+          <t>20002010</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>20005358</t>
+          <t>20005425</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20201014</t>
+          <t>20201017</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>100142</t>
+          <t>100800</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>寬友股份有限公司                                </t>
+          <t>康百國際食品股份有限公司                            </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>IN20</t>
+          <t>IN10</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>IN20</t>
+          <t>IN10</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>740002                   </t>
+          <t>102614-2                 </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2.8"味碟                        </t>
+          <t>小圓片鳳梨830g/罐                   </t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2.8"味碟                        </t>
+          <t>小圓片鳳梨830g/罐                   </t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>TSF21021                      </t>
+          <t>12罐/箱, (鳳冠牌) 固形物430g          </t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>1200</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>50</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1800</t>
+          <t>60000</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1800</t>
+          <t>60000</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1890</t>
+          <t>63000</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20001946</t>
+          <t>20002010</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>20005358</t>
+          <t>20005660</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20201014</t>
+          <t>20201028</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>100142</t>
+          <t>100800</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>寬友股份有限公司                                </t>
+          <t>康百國際食品股份有限公司                            </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>IN20</t>
+          <t>IN10</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>IN20</t>
+          <t>IN10</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>750001                   </t>
+          <t>102614-2                 </t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>麵包籃                           </t>
+          <t>小圓片鳳梨830g/罐                   </t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>麵包籃                           </t>
+          <t>小圓片鳳梨830g/罐                   </t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>橢圓形籐籃22.5*17*6cm (C39Z1)塑膠仿藤  </t>
+          <t>12罐/箱, (鳳冠牌) 固形物430g          </t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>1200</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>50</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>16500</t>
+          <t>60000</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>16500</t>
+          <t>60000</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>825</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>17325</t>
+          <t>63000</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>20001946</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>20005358</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>20201014</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>100142</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>寬友股份有限公司                                </t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>IN20</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>IN20</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>716001                   </t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>止滑托盤11"*15"(無LOGO)            </t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>止滑托盤11"*15"(無LOGO)            </t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>BROWN止滑托盤11"*15",無LOGO        </t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>2100</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>2100</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>2205</t>
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" s="1" t="inlineStr">
+        <is>
+          <t>小計</t>
+        </is>
+      </c>
+      <c r="O6" s="1" t="inlineStr">
+        <is>
+          <t>180,000</t>
+        </is>
+      </c>
+      <c r="P6" s="1" t="inlineStr">
+        <is>
+          <t>9,000</t>
+        </is>
+      </c>
+      <c r="Q6" s="1" t="inlineStr">
+        <is>
+          <t>189,000</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>20001946</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>20005358</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>20201014</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>100142</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>寬友股份有限公司                                </t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>IN20</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>IN20</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>720023                   </t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>S.T圓深杓60.CC                   </t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>S.T圓深杓60.CC                   </t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>158</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>6320</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>6320</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>6636</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>20001946</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>20005358</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>20201014</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>100142</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>寬友股份有限公司                                </t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>IN20</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>IN20</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>750002                   </t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>三明治塑膠長方籃40*30*4cm             </t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>三明治塑膠長方籃40*30*4cm             </t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>100個/箱,客製版 長方形塑膠藤籃41.25*30 (C3</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>209</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>6270</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>6270</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>314</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>6584</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" s="1" t="inlineStr">
-        <is>
-          <t>小計</t>
-        </is>
-      </c>
-      <c r="O9" s="1" t="inlineStr">
-        <is>
-          <t>32,990</t>
-        </is>
-      </c>
-      <c r="P9" s="1" t="inlineStr">
-        <is>
-          <t>1,650</t>
-        </is>
-      </c>
-      <c r="Q9" s="1" t="inlineStr">
-        <is>
-          <t>34,640</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" s="2" t="inlineStr">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" s="2" t="inlineStr">
         <is>
           <t>總計</t>
         </is>
       </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>32,990</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>1,650</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>34,640</t>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>180,000</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>9,000</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>189,000</t>
         </is>
       </c>
     </row>
